--- a/2025/Склад_2025.xlsx
+++ b/2025/Склад_2025.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TimeTrackingSystem\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F813D-3567-4F77-A42A-5BA86B5F08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5027FD7D-2518-4510-9393-5E88628A9B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Февраль" sheetId="2" r:id="rId2"/>
     <sheet name="Март" sheetId="3" r:id="rId3"/>
     <sheet name="Апрель" sheetId="4" r:id="rId4"/>
+    <sheet name="Июнь" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -140,6 +141,15 @@
   </si>
   <si>
     <t>Норбоев Бобур</t>
+  </si>
+  <si>
+    <t>Нет данных</t>
+  </si>
+  <si>
+    <t>Кахоров Сардорбек</t>
+  </si>
+  <si>
+    <t>уточнить</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1538,7 @@
   </sheetPr>
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AE5"/>
     </sheetView>
   </sheetViews>
@@ -2011,6 +2021,565 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="30" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2">
+        <v>346.5</v>
+      </c>
+      <c r="AG2">
+        <v>53707.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12</v>
+      </c>
+      <c r="W3" s="1">
+        <v>11</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3">
+        <v>316.5</v>
+      </c>
+      <c r="AG3">
+        <v>80707.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4">
+        <v>116</v>
+      </c>
+      <c r="AG4">
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="T5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5">
+        <v>157.5</v>
+      </c>
+      <c r="AG5">
+        <v>40162.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>13</v>
+      </c>
+      <c r="R6" s="1">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6">
+        <v>348</v>
+      </c>
+      <c r="AG6">
+        <v>88740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>